--- a/test/uch_plan_85.xlsx
+++ b/test/uch_plan_85.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$2:$B$463</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$2:$B$515</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">[1]Лист1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="63">
   <si>
     <t>class</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>Ин. яз.</t>
+  </si>
+  <si>
+    <t>5в</t>
+  </si>
+  <si>
+    <t>5г</t>
+  </si>
+  <si>
+    <t>5д</t>
+  </si>
+  <si>
+    <t>5е</t>
   </si>
 </sst>
 </file>
@@ -533,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,13 +783,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +805,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +834,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -830,15 +842,15 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -846,23 +858,23 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -870,82 +882,82 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -953,15 +965,15 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -969,63 +981,66 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1033,106 +1048,106 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1140,7 +1155,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1148,7 +1163,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1156,336 +1171,336 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>25</v>
-      </c>
       <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
         <v>18</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>58</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>57</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>7</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>10</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>12</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>13</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>16</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>17</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>19</v>
       </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>21</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>22</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
         <v>18</v>
       </c>
-      <c r="C96">
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
         <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>57</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -1493,7 +1508,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -1501,7 +1516,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -1509,47 +1524,47 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -1557,15 +1572,15 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1573,7 +1588,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1581,7 +1596,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -1589,7 +1604,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -1597,42 +1612,42 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
         <v>22</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
         <v>18</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>58</v>
-      </c>
       <c r="C131">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -1640,7 +1655,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -1648,31 +1663,31 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -1680,122 +1695,122 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>29</v>
-      </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -1803,7 +1818,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -1811,23 +1826,23 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -1835,42 +1850,39 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>30</v>
-      </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -1878,7 +1890,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -1886,39 +1898,42 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -1926,23 +1941,23 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -1950,7 +1965,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -1958,58 +1973,55 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>31</v>
-      </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -2017,55 +2029,58 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -2073,42 +2088,39 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>32</v>
-      </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C191">
         <v>3</v>
@@ -2116,79 +2128,82 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -2196,58 +2211,55 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>33</v>
-      </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -2255,7 +2267,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -2263,39 +2275,42 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>30</v>
+      </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -2303,82 +2318,79 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>34</v>
-      </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C220">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -2386,7 +2398,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -2394,47 +2406,50 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>31</v>
+      </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -2442,15 +2457,15 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -2458,26 +2473,23 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>38</v>
-      </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C235">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -2493,7 +2505,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C238">
         <v>2</v>
@@ -2501,15 +2513,15 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C240">
         <v>2</v>
@@ -2517,114 +2529,114 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>32</v>
+      </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>39</v>
-      </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C249">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -2632,98 +2644,98 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>33</v>
+      </c>
       <c r="B257" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>41</v>
-      </c>
       <c r="B263" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C263">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C264">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C266">
         <v>2</v>
@@ -2731,15 +2743,15 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -2747,7 +2759,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -2755,114 +2767,114 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>34</v>
+      </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>43</v>
-      </c>
       <c r="B279" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C279">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C280">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C283">
         <v>2</v>
@@ -2870,7 +2882,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -2878,184 +2890,184 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C286">
         <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>38</v>
+      </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>44</v>
-      </c>
       <c r="B293" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C293">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C294">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C297">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C300">
         <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>39</v>
+      </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>45</v>
-      </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C306">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -3063,36 +3075,36 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3100,7 +3112,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -3108,82 +3120,82 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C313">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
+        <v>40</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>41</v>
+      </c>
+      <c r="B315" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315">
         <v>6</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B315" t="s">
-        <v>13</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>46</v>
-      </c>
       <c r="B321" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C321">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -3191,23 +3203,23 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -3215,7 +3227,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -3223,15 +3235,15 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C327">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -3239,7 +3251,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -3247,66 +3259,66 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>43</v>
+      </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C332">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C335">
         <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>47</v>
-      </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C336">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -3314,15 +3326,15 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -3330,23 +3342,23 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C341">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -3354,7 +3366,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -3362,31 +3374,34 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C344">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>44</v>
+      </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -3394,50 +3409,47 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C349">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>48</v>
-      </c>
       <c r="B351" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C351">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C352">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -3445,87 +3457,90 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C356">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>45</v>
+      </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C359">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -3533,50 +3548,47 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>49</v>
-      </c>
       <c r="B366" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C367">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C368">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -3584,7 +3596,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -3592,23 +3604,26 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>46</v>
+      </c>
       <c r="B373" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C373">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -3616,7 +3631,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -3624,23 +3639,23 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C376">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -3648,26 +3663,23 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>50</v>
-      </c>
       <c r="B380" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C380">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -3675,31 +3687,31 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C382">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -3707,47 +3719,50 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>47</v>
+      </c>
       <c r="B388" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C388">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -3755,7 +3770,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C392">
         <v>2</v>
@@ -3763,23 +3778,23 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C394">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -3787,34 +3802,31 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C396">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>51</v>
-      </c>
       <c r="B397" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C398">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C399">
         <v>2</v>
@@ -3822,7 +3834,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -3830,7 +3842,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C401">
         <v>2</v>
@@ -3838,39 +3850,42 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>48</v>
+      </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C406">
         <v>2</v>
@@ -3878,23 +3893,23 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -3902,31 +3917,31 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -3937,55 +3952,55 @@
         <v>19</v>
       </c>
       <c r="C414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>52</v>
-      </c>
       <c r="B415" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C415">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C416">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>49</v>
+      </c>
       <c r="B418" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C419">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C420">
         <v>2</v>
@@ -3993,15 +4008,15 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -4017,47 +4032,47 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C425">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -4065,279 +4080,704 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
+        <v>13</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
         <v>19</v>
       </c>
-      <c r="C430">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>53</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>50</v>
+      </c>
+      <c r="B432" t="s">
         <v>18</v>
       </c>
-      <c r="C431">
+      <c r="C432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
+        <v>58</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
+        <v>17</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
+        <v>14</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
+        <v>16</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
+        <v>57</v>
+      </c>
+      <c r="C442">
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B432" t="s">
-        <v>58</v>
-      </c>
-      <c r="C432">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B433" t="s">
-        <v>7</v>
-      </c>
-      <c r="C433">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B434" t="s">
-        <v>8</v>
-      </c>
-      <c r="C434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B435" t="s">
-        <v>17</v>
-      </c>
-      <c r="C435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B436" t="s">
-        <v>12</v>
-      </c>
-      <c r="C436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B437" t="s">
-        <v>57</v>
-      </c>
-      <c r="C437">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B438" t="s">
-        <v>13</v>
-      </c>
-      <c r="C438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B439" t="s">
-        <v>14</v>
-      </c>
-      <c r="C439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B440" t="s">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
         <v>22</v>
       </c>
-      <c r="C440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B441" t="s">
-        <v>16</v>
-      </c>
-      <c r="C441">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B442" t="s">
-        <v>19</v>
-      </c>
-      <c r="C442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B443" t="s">
-        <v>6</v>
-      </c>
       <c r="C443">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C444">
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>10</v>
       </c>
       <c r="C445">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
+        <v>13</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
+        <v>19</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>51</v>
+      </c>
+      <c r="B449" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
+        <v>58</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
+        <v>14</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
+        <v>17</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
+        <v>12</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
+        <v>16</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
+        <v>57</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
+        <v>22</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
+        <v>21</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
         <v>20</v>
       </c>
-      <c r="C446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+      <c r="C464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
+        <v>13</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
+        <v>19</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>52</v>
+      </c>
+      <c r="B467" t="s">
+        <v>18</v>
+      </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
+        <v>58</v>
+      </c>
+      <c r="C468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
+        <v>7</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B472" t="s">
+        <v>14</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B473" t="s">
+        <v>17</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
+        <v>22</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
+        <v>57</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
+        <v>16</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
+        <v>10</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
+        <v>20</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
+        <v>13</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
+        <v>19</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>53</v>
+      </c>
+      <c r="B483" t="s">
+        <v>18</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
+        <v>58</v>
+      </c>
+      <c r="C484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
+        <v>17</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B488" t="s">
+        <v>12</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B489" t="s">
+        <v>57</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
+        <v>13</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B491" t="s">
+        <v>14</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
+        <v>22</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B493" t="s">
+        <v>16</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B494" t="s">
+        <v>19</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B495" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
+        <v>10</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B498" t="s">
+        <v>20</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
         <v>54</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B499" t="s">
         <v>18</v>
       </c>
-      <c r="C447">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B448" t="s">
+      <c r="C499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B500" t="s">
         <v>58</v>
       </c>
-      <c r="C448">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B449" t="s">
+      <c r="C500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B501" t="s">
         <v>7</v>
       </c>
-      <c r="C449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B450" t="s">
+      <c r="C501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B502" t="s">
         <v>8</v>
       </c>
-      <c r="C450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B451" t="s">
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B503" t="s">
         <v>22</v>
       </c>
-      <c r="C451">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B452" t="s">
+      <c r="C503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B504" t="s">
         <v>12</v>
       </c>
-      <c r="C452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B453" t="s">
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B505" t="s">
         <v>57</v>
       </c>
-      <c r="C453">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B454" t="s">
+      <c r="C505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B506" t="s">
         <v>16</v>
       </c>
-      <c r="C454">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B455" t="s">
+      <c r="C506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B507" t="s">
         <v>10</v>
       </c>
-      <c r="C455">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B456" t="s">
-        <v>5</v>
-      </c>
-      <c r="C456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B457" t="s">
+      <c r="C507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B508" t="s">
+        <v>5</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B509" t="s">
         <v>19</v>
       </c>
-      <c r="C457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B458" t="s">
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B510" t="s">
         <v>20</v>
       </c>
-      <c r="C458">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B459" t="s">
+      <c r="C510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B511" t="s">
         <v>14</v>
       </c>
-      <c r="C459">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B460" t="s">
+      <c r="C511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B512" t="s">
         <v>6</v>
       </c>
-      <c r="C460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B461" t="s">
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B513" t="s">
         <v>13</v>
       </c>
-      <c r="C461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B462" t="s">
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B514" t="s">
         <v>17</v>
       </c>
-      <c r="C462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B463" t="s">
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B515" t="s">
         <v>9</v>
       </c>
-      <c r="C463">
+      <c r="C515">
         <v>1</v>
       </c>
     </row>

--- a/test/uch_plan_85.xlsx
+++ b/test/uch_plan_85.xlsx
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test/uch_plan_85.xlsx
+++ b/test/uch_plan_85.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:C515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
